--- a/OSM/wwwroot/templates/BillTemplate.xlsx
+++ b/OSM/wwwroot/templates/BillTemplate.xlsx
@@ -252,47 +252,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -567,7 +567,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -578,7 +578,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -591,48 +591,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="25"/>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
@@ -841,10 +841,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="17"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="3">
         <f>SUM(C9:C23)</f>
         <v>0</v>
@@ -856,32 +856,37 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
@@ -889,11 +894,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
   </mergeCells>
   <pageMargins left="0.55069444444444449" right="0.2361111111111111" top="0.47222222222222221" bottom="0.35416666666666669" header="0.31458333333333333" footer="0.27500000000000002"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" r:id="rId1"/>
